--- a/z_ModderResources/Guide Tables/Survival Biome Types Planner.xlsx
+++ b/z_ModderResources/Guide Tables/Survival Biome Types Planner.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Game Mods\No Mans Sky\Mods\_Survival_Mode\_mod.SurvivalMode\z_ModderResources\Guide Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="5190"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Damage" sheetId="4" r:id="rId3"/>
     <sheet name="Creatures" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Aaron Fisher - Personal View" guid="{D6331F80-360A-406C-8810-4213A173FE64}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1680" windowHeight="820" activeSheetId="1"/>
   </customWorkbookViews>
@@ -139,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +166,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,25 +254,78 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +404,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +456,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,87 +649,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="14" customWidth="1"/>
-    <col min="4" max="10" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="14" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="14"/>
-    <col min="17" max="18" width="11.5703125" style="14" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="14"/>
-    <col min="21" max="22" width="11.85546875" style="14" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" style="14"/>
-    <col min="27" max="27" width="33.5703125" style="14" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="12.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="12" customWidth="1"/>
+    <col min="4" max="10" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="12" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="12"/>
+    <col min="17" max="18" width="11.5703125" style="12" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="12"/>
+    <col min="21" max="22" width="11.85546875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="33.5703125" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="51.75">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -655,13 +767,13 @@
       <c r="V2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="2"/>
+      <c r="W2" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -669,40 +781,36 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -753,40 +861,36 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -825,11 +929,11 @@
       <c r="V4" s="9">
         <v>0.25</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="12"/>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -837,40 +941,36 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="C5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -909,11 +1009,11 @@
       <c r="V5" s="9">
         <v>0.25</v>
       </c>
-      <c r="W5" s="2"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="12"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -921,40 +1021,36 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="6" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -993,11 +1089,11 @@
       <c r="V6" s="9">
         <v>0.25</v>
       </c>
-      <c r="W6" s="2"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1005,40 +1101,36 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1077,11 +1169,11 @@
       <c r="V7" s="9">
         <v>0.25</v>
       </c>
-      <c r="W7" s="2"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1089,40 +1181,36 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1161,11 +1249,11 @@
       <c r="V8" s="9">
         <v>0.25</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1173,40 +1261,36 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" ht="26.25">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1245,11 +1329,11 @@
       <c r="V9" s="9">
         <v>0.25</v>
       </c>
-      <c r="W9" s="2"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -1257,10 +1341,6 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1274,19 +1354,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:J1048576">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Technology">
+      <formula>NOT(ISERROR(SEARCH("Technology",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Commodity">
+      <formula>NOT(ISERROR(SEARCH("Commodity",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Tradeable">
+      <formula>NOT(ISERROR(SEARCH("Tradeable",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
     <customSheetView guid="{D6331F80-360A-406C-8810-4213A173FE64}">
@@ -1298,26 +1389,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
